--- a/Planeacion PetClinic/Product backlog.xlsx
+++ b/Planeacion PetClinic/Product backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Escritorio\Plantilla Agile documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\UP-Chiapas\8 Cuatrimestre\Mantenimiento\1  Corte\Planeacion PetClinic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA4002B-CAC9-4145-8709-088E523A3F02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455184A-4485-4E5E-AE1F-1A9DD9F04693}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Crear base de datos, tablas y datos</t>
+  </si>
+  <si>
+    <t>Planeación inicial</t>
   </si>
 </sst>
 </file>
@@ -630,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AD74"/>
+  <dimension ref="B1:AD76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -934,11 +937,11 @@
         <v>15</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="13">
-        <f>SUM(G10:G18)</f>
-        <v>46</v>
+        <f>SUM(G10:G20)</f>
+        <v>50</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>10</v>
@@ -968,10 +971,10 @@
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>1</v>
@@ -980,10 +983,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>10</v>
@@ -1011,24 +1014,24 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>10</v>
@@ -1056,9 +1059,9 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>10</v>
@@ -1103,7 +1106,7 @@
     </row>
     <row r="13" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>10</v>
@@ -1112,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>14</v>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="14" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>10</v>
@@ -1193,7 +1196,7 @@
     </row>
     <row r="15" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>10</v>
@@ -1238,7 +1241,7 @@
     </row>
     <row r="16" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>10</v>
@@ -1283,7 +1286,7 @@
     </row>
     <row r="17" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>10</v>
@@ -1326,24 +1329,24 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>10</v>
@@ -1371,14 +1374,28 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+    <row r="19" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="12">
+        <v>3</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1402,45 +1419,14 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-    </row>
-    <row r="21" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
+    <row r="21" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1495,14 +1481,14 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
     </row>
-    <row r="23" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+    <row r="23" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1557,14 +1543,14 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+    <row r="25" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1619,14 +1605,14 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+    <row r="27" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1681,14 +1667,14 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+    <row r="29" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1712,14 +1698,14 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+    <row r="30" spans="2:30" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1743,20 +1729,20 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="2:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="3"/>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -1774,20 +1760,20 @@
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="2:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="3"/>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -1929,20 +1915,20 @@
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+    <row r="37" spans="2:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="3"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -1960,20 +1946,20 @@
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+    <row r="38" spans="2:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="3"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -3107,15 +3093,77 @@
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
     </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H18 C9:D18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:D11 C12:D19 H9:H11 H12:H19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>YesNo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E11 E12:E19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F18" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F11 F12:F19" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/Planeacion PetClinic/Product backlog.xlsx
+++ b/Planeacion PetClinic/Product backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\UP-Chiapas\8 Cuatrimestre\Mantenimiento\1  Corte\Planeacion PetClinic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\GitHub\Planeacion-PetClinic\Planeacion PetClinic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455184A-4485-4E5E-AE1F-1A9DD9F04693}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5771BD6-8EA2-46A4-AB73-731CD3D9520B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -983,7 +983,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="12">
         <v>4</v>
@@ -1028,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="12">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="12">
         <v>8</v>
@@ -1118,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="12">
         <v>3</v>
@@ -1163,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="12">
         <v>8</v>
@@ -1208,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="12">
         <v>3</v>
@@ -1253,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="12">
         <v>8</v>
@@ -1298,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="12">
         <v>3</v>
@@ -1343,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="12">
         <v>8</v>
@@ -1388,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="12">
         <v>3</v>
@@ -3157,13 +3157,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:D11 C12:D19 H9:H11 H12:H19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:D19 H9:H19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>YesNo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E11 E12:E19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F11 F12:F19" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F19" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
